--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1613.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1613.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.141708243386795</v>
+        <v>0.6619111895561218</v>
       </c>
       <c r="B1">
-        <v>2.351488193545339</v>
+        <v>2.090850353240967</v>
       </c>
       <c r="C1">
-        <v>4.787405754097751</v>
+        <v>5.174644470214844</v>
       </c>
       <c r="D1">
-        <v>2.389463242238769</v>
+        <v>2.851711511611938</v>
       </c>
       <c r="E1">
-        <v>1.080140438813587</v>
+        <v>0.6882362365722656</v>
       </c>
     </row>
   </sheetData>
